--- a/Final/amcharts.xlsx
+++ b/Final/amcharts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yingxuan/Documents/SUTD/Term 5/ESA/Project/Viz-Wiz/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC6A8A3A-DA3A-FB45-8DF5-15CA1A01E94B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5576E7-D74B-D84C-993C-3A38166F0730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38220" yWindow="3580" windowWidth="26440" windowHeight="15440" xr2:uid="{44DDBCC0-C9D8-FC4C-B4E1-74FB096BFCBA}"/>
+    <workbookView xWindow="42420" yWindow="1900" windowWidth="27720" windowHeight="17440" xr2:uid="{44DDBCC0-C9D8-FC4C-B4E1-74FB096BFCBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="12">
   <si>
     <t>Age</t>
   </si>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E919360A-F4CF-AC48-9110-A69F77FBDEA3}">
-  <dimension ref="A1:F199"/>
+  <dimension ref="A1:F403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
+      <selection activeCell="D397" sqref="D397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3814,6 +3814,3474 @@
         <v>100</v>
       </c>
     </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>8</v>
+      </c>
+      <c r="C200" t="s">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F200">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>20</v>
+      </c>
+      <c r="C201" t="s">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s">
+        <v>8</v>
+      </c>
+      <c r="E201">
+        <v>8.6</v>
+      </c>
+      <c r="F201">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>11</v>
+      </c>
+      <c r="C202" t="s">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s">
+        <v>8</v>
+      </c>
+      <c r="E202">
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="F202">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>19</v>
+      </c>
+      <c r="C203" t="s">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s">
+        <v>9</v>
+      </c>
+      <c r="E203">
+        <v>7.5</v>
+      </c>
+      <c r="F203">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>12</v>
+      </c>
+      <c r="C204" t="s">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204">
+        <v>7.8571428571428568</v>
+      </c>
+      <c r="F204">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>7</v>
+      </c>
+      <c r="C205" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" t="s">
+        <v>10</v>
+      </c>
+      <c r="E205">
+        <v>7.5</v>
+      </c>
+      <c r="F205">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>11</v>
+      </c>
+      <c r="C206" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206" t="s">
+        <v>10</v>
+      </c>
+      <c r="E206">
+        <v>7</v>
+      </c>
+      <c r="F206">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>19</v>
+      </c>
+      <c r="C207" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207">
+        <v>7</v>
+      </c>
+      <c r="F207">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>12</v>
+      </c>
+      <c r="C208" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" t="s">
+        <v>7</v>
+      </c>
+      <c r="E208">
+        <v>7.083333333333333</v>
+      </c>
+      <c r="F208">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>10</v>
+      </c>
+      <c r="C209" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209" t="s">
+        <v>8</v>
+      </c>
+      <c r="E209">
+        <v>6</v>
+      </c>
+      <c r="F209">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>20</v>
+      </c>
+      <c r="C210" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" t="s">
+        <v>8</v>
+      </c>
+      <c r="E210">
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="F210">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>8</v>
+      </c>
+      <c r="C211" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" t="s">
+        <v>9</v>
+      </c>
+      <c r="E211">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="F211">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>6</v>
+      </c>
+      <c r="C212" t="s">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212">
+        <v>5.75</v>
+      </c>
+      <c r="F212">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s">
+        <v>10</v>
+      </c>
+      <c r="E213">
+        <v>7.0666666666666664</v>
+      </c>
+      <c r="F213">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>6</v>
+      </c>
+      <c r="C214" t="s">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s">
+        <v>10</v>
+      </c>
+      <c r="E214">
+        <v>8.4117647058823533</v>
+      </c>
+      <c r="F214">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>18</v>
+      </c>
+      <c r="C215" t="s">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s">
+        <v>7</v>
+      </c>
+      <c r="E215">
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="F215">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>22</v>
+      </c>
+      <c r="C216" t="s">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s">
+        <v>7</v>
+      </c>
+      <c r="E216">
+        <v>7.6923076923076934</v>
+      </c>
+      <c r="F216">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>17</v>
+      </c>
+      <c r="C217" t="s">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s">
+        <v>8</v>
+      </c>
+      <c r="E217">
+        <v>6.9333333333333336</v>
+      </c>
+      <c r="F217">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>6</v>
+      </c>
+      <c r="C218" t="s">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s">
+        <v>8</v>
+      </c>
+      <c r="E218">
+        <v>6.5</v>
+      </c>
+      <c r="F218">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>23</v>
+      </c>
+      <c r="C219" t="s">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s">
+        <v>9</v>
+      </c>
+      <c r="E219">
+        <v>9.25</v>
+      </c>
+      <c r="F219">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>6</v>
+      </c>
+      <c r="C220" t="s">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s">
+        <v>9</v>
+      </c>
+      <c r="E220">
+        <v>9.5</v>
+      </c>
+      <c r="F220">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>8</v>
+      </c>
+      <c r="C221" t="s">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s">
+        <v>10</v>
+      </c>
+      <c r="E221">
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="F221">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>16</v>
+      </c>
+      <c r="C222" t="s">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s">
+        <v>10</v>
+      </c>
+      <c r="E222">
+        <v>5.416666666666667</v>
+      </c>
+      <c r="F222">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>7</v>
+      </c>
+      <c r="C223" t="s">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s">
+        <v>7</v>
+      </c>
+      <c r="E223">
+        <v>6.7692307692307692</v>
+      </c>
+      <c r="F223">
+        <v>70.83</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>7</v>
+      </c>
+      <c r="C224" t="s">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s">
+        <v>7</v>
+      </c>
+      <c r="E224">
+        <v>6.5</v>
+      </c>
+      <c r="F224">
+        <v>71.67</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>7</v>
+      </c>
+      <c r="C225" t="s">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s">
+        <v>8</v>
+      </c>
+      <c r="E225">
+        <v>5.375</v>
+      </c>
+      <c r="F225">
+        <v>68.33</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>18</v>
+      </c>
+      <c r="C226" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226" t="s">
+        <v>8</v>
+      </c>
+      <c r="E226">
+        <v>6.875</v>
+      </c>
+      <c r="F226">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>25</v>
+      </c>
+      <c r="C227" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" t="s">
+        <v>9</v>
+      </c>
+      <c r="E227">
+        <v>5.375</v>
+      </c>
+      <c r="F227">
+        <v>77.08</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>11</v>
+      </c>
+      <c r="C228" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" t="s">
+        <v>9</v>
+      </c>
+      <c r="E228">
+        <v>4.8</v>
+      </c>
+      <c r="F228">
+        <v>78.89</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>16</v>
+      </c>
+      <c r="C229" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229" t="s">
+        <v>10</v>
+      </c>
+      <c r="E229">
+        <v>5.416666666666667</v>
+      </c>
+      <c r="F229">
+        <v>78.33</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>15</v>
+      </c>
+      <c r="C230" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" t="s">
+        <v>10</v>
+      </c>
+      <c r="E230">
+        <v>7.9</v>
+      </c>
+      <c r="F230">
+        <v>76.67</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>20</v>
+      </c>
+      <c r="C231" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" t="s">
+        <v>10</v>
+      </c>
+      <c r="E231">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F231">
+        <v>81.11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>9</v>
+      </c>
+      <c r="C232" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232" t="s">
+        <v>8</v>
+      </c>
+      <c r="E232">
+        <v>7.2</v>
+      </c>
+      <c r="F232">
+        <v>81.94</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>22</v>
+      </c>
+      <c r="C233" t="s">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s">
+        <v>8</v>
+      </c>
+      <c r="E233">
+        <v>9.1</v>
+      </c>
+      <c r="F233">
+        <v>84.44</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>6</v>
+      </c>
+      <c r="C234" t="s">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s">
+        <v>9</v>
+      </c>
+      <c r="E234">
+        <v>7.4</v>
+      </c>
+      <c r="F234">
+        <v>85.83</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>73</v>
+      </c>
+      <c r="C235" t="s">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s">
+        <v>9</v>
+      </c>
+      <c r="E235">
+        <v>8.1</v>
+      </c>
+      <c r="F235">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>44</v>
+      </c>
+      <c r="C236" t="s">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s">
+        <v>7</v>
+      </c>
+      <c r="E236">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F236">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>46</v>
+      </c>
+      <c r="C237" t="s">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s">
+        <v>8</v>
+      </c>
+      <c r="E237">
+        <v>8.6</v>
+      </c>
+      <c r="F237">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>16</v>
+      </c>
+      <c r="C238" t="s">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s">
+        <v>8</v>
+      </c>
+      <c r="E238">
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="F238">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>13</v>
+      </c>
+      <c r="C239" t="s">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s">
+        <v>9</v>
+      </c>
+      <c r="E239">
+        <v>7.5</v>
+      </c>
+      <c r="F239">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>3</v>
+      </c>
+      <c r="C240" t="s">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s">
+        <v>9</v>
+      </c>
+      <c r="E240">
+        <v>7.8571428571428568</v>
+      </c>
+      <c r="F240">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>16</v>
+      </c>
+      <c r="C241" t="s">
+        <v>6</v>
+      </c>
+      <c r="D241" t="s">
+        <v>10</v>
+      </c>
+      <c r="E241">
+        <v>7.5</v>
+      </c>
+      <c r="F241">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>68</v>
+      </c>
+      <c r="C242" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242" t="s">
+        <v>10</v>
+      </c>
+      <c r="E242">
+        <v>7</v>
+      </c>
+      <c r="F242">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>26</v>
+      </c>
+      <c r="C243" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243" t="s">
+        <v>7</v>
+      </c>
+      <c r="E243">
+        <v>7</v>
+      </c>
+      <c r="F243">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>46</v>
+      </c>
+      <c r="C244" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244" t="s">
+        <v>7</v>
+      </c>
+      <c r="E244">
+        <v>7.083333333333333</v>
+      </c>
+      <c r="F244">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>8</v>
+      </c>
+      <c r="C245" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245" t="s">
+        <v>8</v>
+      </c>
+      <c r="E245">
+        <v>6</v>
+      </c>
+      <c r="F245">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>76</v>
+      </c>
+      <c r="C246" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246" t="s">
+        <v>8</v>
+      </c>
+      <c r="E246">
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="F246">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>56</v>
+      </c>
+      <c r="C247" t="s">
+        <v>6</v>
+      </c>
+      <c r="D247" t="s">
+        <v>9</v>
+      </c>
+      <c r="E247">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="F247">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>54</v>
+      </c>
+      <c r="C248" t="s">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s">
+        <v>9</v>
+      </c>
+      <c r="E248">
+        <v>5.75</v>
+      </c>
+      <c r="F248">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>66</v>
+      </c>
+      <c r="C249" t="s">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s">
+        <v>10</v>
+      </c>
+      <c r="E249">
+        <v>7.0666666666666664</v>
+      </c>
+      <c r="F249">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>8</v>
+      </c>
+      <c r="C250" t="s">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s">
+        <v>10</v>
+      </c>
+      <c r="E250">
+        <v>8.4117647058823533</v>
+      </c>
+      <c r="F250">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>53</v>
+      </c>
+      <c r="C251" t="s">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s">
+        <v>7</v>
+      </c>
+      <c r="E251">
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="F251">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>16</v>
+      </c>
+      <c r="C252" t="s">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s">
+        <v>7</v>
+      </c>
+      <c r="E252">
+        <v>7.6923076923076934</v>
+      </c>
+      <c r="F252">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>48</v>
+      </c>
+      <c r="C253" t="s">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s">
+        <v>8</v>
+      </c>
+      <c r="E253">
+        <v>6.9333333333333336</v>
+      </c>
+      <c r="F253">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>23</v>
+      </c>
+      <c r="C254" t="s">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s">
+        <v>8</v>
+      </c>
+      <c r="E254">
+        <v>6.5</v>
+      </c>
+      <c r="F254">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>3</v>
+      </c>
+      <c r="C255" t="s">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s">
+        <v>9</v>
+      </c>
+      <c r="E255">
+        <v>9.25</v>
+      </c>
+      <c r="F255">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>44</v>
+      </c>
+      <c r="C256" t="s">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s">
+        <v>9</v>
+      </c>
+      <c r="E256">
+        <v>9.5</v>
+      </c>
+      <c r="F256">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>49</v>
+      </c>
+      <c r="C257" t="s">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s">
+        <v>10</v>
+      </c>
+      <c r="E257">
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="F257">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>6</v>
+      </c>
+      <c r="C258" t="s">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s">
+        <v>10</v>
+      </c>
+      <c r="E258">
+        <v>5.416666666666667</v>
+      </c>
+      <c r="F258">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>35</v>
+      </c>
+      <c r="C259" t="s">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s">
+        <v>7</v>
+      </c>
+      <c r="E259">
+        <v>6.7692307692307692</v>
+      </c>
+      <c r="F259">
+        <v>70.83</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>39</v>
+      </c>
+      <c r="C260" t="s">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s">
+        <v>7</v>
+      </c>
+      <c r="E260">
+        <v>6.5</v>
+      </c>
+      <c r="F260">
+        <v>71.67</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>64</v>
+      </c>
+      <c r="C261" t="s">
+        <v>11</v>
+      </c>
+      <c r="D261" t="s">
+        <v>8</v>
+      </c>
+      <c r="E261">
+        <v>5.375</v>
+      </c>
+      <c r="F261">
+        <v>68.33</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>65</v>
+      </c>
+      <c r="C262" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262" t="s">
+        <v>8</v>
+      </c>
+      <c r="E262">
+        <v>6.875</v>
+      </c>
+      <c r="F262">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>53</v>
+      </c>
+      <c r="C263" t="s">
+        <v>6</v>
+      </c>
+      <c r="D263" t="s">
+        <v>9</v>
+      </c>
+      <c r="E263">
+        <v>5.375</v>
+      </c>
+      <c r="F263">
+        <v>77.08</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>77</v>
+      </c>
+      <c r="C264" t="s">
+        <v>6</v>
+      </c>
+      <c r="D264" t="s">
+        <v>9</v>
+      </c>
+      <c r="E264">
+        <v>4.8</v>
+      </c>
+      <c r="F264">
+        <v>78.89</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>34</v>
+      </c>
+      <c r="C265" t="s">
+        <v>6</v>
+      </c>
+      <c r="D265" t="s">
+        <v>10</v>
+      </c>
+      <c r="E265">
+        <v>5.416666666666667</v>
+      </c>
+      <c r="F265">
+        <v>78.33</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>47</v>
+      </c>
+      <c r="C266" t="s">
+        <v>6</v>
+      </c>
+      <c r="D266" t="s">
+        <v>10</v>
+      </c>
+      <c r="E266">
+        <v>7.9</v>
+      </c>
+      <c r="F266">
+        <v>76.67</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>55</v>
+      </c>
+      <c r="C267" t="s">
+        <v>6</v>
+      </c>
+      <c r="D267" t="s">
+        <v>10</v>
+      </c>
+      <c r="E267">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F267">
+        <v>81.11</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>6</v>
+      </c>
+      <c r="C268" t="s">
+        <v>6</v>
+      </c>
+      <c r="D268" t="s">
+        <v>8</v>
+      </c>
+      <c r="E268">
+        <v>7.2</v>
+      </c>
+      <c r="F268">
+        <v>81.94</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>60</v>
+      </c>
+      <c r="C269" t="s">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s">
+        <v>8</v>
+      </c>
+      <c r="E269">
+        <v>9.1</v>
+      </c>
+      <c r="F269">
+        <v>84.44</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>55</v>
+      </c>
+      <c r="C270" t="s">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s">
+        <v>9</v>
+      </c>
+      <c r="E270">
+        <v>7.4</v>
+      </c>
+      <c r="F270">
+        <v>85.83</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>39</v>
+      </c>
+      <c r="C271" t="s">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s">
+        <v>9</v>
+      </c>
+      <c r="E271">
+        <v>8.1</v>
+      </c>
+      <c r="F271">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>56</v>
+      </c>
+      <c r="C272" t="s">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s">
+        <v>7</v>
+      </c>
+      <c r="E272">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F272">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>24</v>
+      </c>
+      <c r="C273" t="s">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s">
+        <v>8</v>
+      </c>
+      <c r="E273">
+        <v>8.6</v>
+      </c>
+      <c r="F273">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>17</v>
+      </c>
+      <c r="C274" t="s">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s">
+        <v>8</v>
+      </c>
+      <c r="E274">
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="F274">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>46</v>
+      </c>
+      <c r="C275" t="s">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s">
+        <v>9</v>
+      </c>
+      <c r="E275">
+        <v>7.5</v>
+      </c>
+      <c r="F275">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>3</v>
+      </c>
+      <c r="C276" t="s">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s">
+        <v>9</v>
+      </c>
+      <c r="E276">
+        <v>7.8571428571428568</v>
+      </c>
+      <c r="F276">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>28</v>
+      </c>
+      <c r="C277" t="s">
+        <v>6</v>
+      </c>
+      <c r="D277" t="s">
+        <v>10</v>
+      </c>
+      <c r="E277">
+        <v>7.5</v>
+      </c>
+      <c r="F277">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>8</v>
+      </c>
+      <c r="C278" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278" t="s">
+        <v>10</v>
+      </c>
+      <c r="E278">
+        <v>7</v>
+      </c>
+      <c r="F278">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>73</v>
+      </c>
+      <c r="C279" t="s">
+        <v>6</v>
+      </c>
+      <c r="D279" t="s">
+        <v>7</v>
+      </c>
+      <c r="E279">
+        <v>7</v>
+      </c>
+      <c r="F279">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>30</v>
+      </c>
+      <c r="C280" t="s">
+        <v>6</v>
+      </c>
+      <c r="D280" t="s">
+        <v>7</v>
+      </c>
+      <c r="E280">
+        <v>7.083333333333333</v>
+      </c>
+      <c r="F280">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>71</v>
+      </c>
+      <c r="C281" t="s">
+        <v>6</v>
+      </c>
+      <c r="D281" t="s">
+        <v>8</v>
+      </c>
+      <c r="E281">
+        <v>6</v>
+      </c>
+      <c r="F281">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>78</v>
+      </c>
+      <c r="C282" t="s">
+        <v>6</v>
+      </c>
+      <c r="D282" t="s">
+        <v>8</v>
+      </c>
+      <c r="E282">
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="F282">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>50</v>
+      </c>
+      <c r="C283" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283" t="s">
+        <v>9</v>
+      </c>
+      <c r="E283">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="F283">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>39</v>
+      </c>
+      <c r="C284" t="s">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s">
+        <v>9</v>
+      </c>
+      <c r="E284">
+        <v>5.75</v>
+      </c>
+      <c r="F284">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>58</v>
+      </c>
+      <c r="C285" t="s">
+        <v>11</v>
+      </c>
+      <c r="D285" t="s">
+        <v>10</v>
+      </c>
+      <c r="E285">
+        <v>7.0666666666666664</v>
+      </c>
+      <c r="F285">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>17</v>
+      </c>
+      <c r="C286" t="s">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s">
+        <v>10</v>
+      </c>
+      <c r="E286">
+        <v>8.4117647058823533</v>
+      </c>
+      <c r="F286">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>12</v>
+      </c>
+      <c r="C287" t="s">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s">
+        <v>7</v>
+      </c>
+      <c r="E287">
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="F287">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>51</v>
+      </c>
+      <c r="C288" t="s">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s">
+        <v>7</v>
+      </c>
+      <c r="E288">
+        <v>7.6923076923076934</v>
+      </c>
+      <c r="F288">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>52</v>
+      </c>
+      <c r="C289" t="s">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s">
+        <v>8</v>
+      </c>
+      <c r="E289">
+        <v>6.9333333333333336</v>
+      </c>
+      <c r="F289">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>43</v>
+      </c>
+      <c r="C290" t="s">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s">
+        <v>8</v>
+      </c>
+      <c r="E290">
+        <v>6.5</v>
+      </c>
+      <c r="F290">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>46</v>
+      </c>
+      <c r="C291" t="s">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s">
+        <v>9</v>
+      </c>
+      <c r="E291">
+        <v>9.25</v>
+      </c>
+      <c r="F291">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>38</v>
+      </c>
+      <c r="C292" t="s">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s">
+        <v>9</v>
+      </c>
+      <c r="E292">
+        <v>9.5</v>
+      </c>
+      <c r="F292">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>69</v>
+      </c>
+      <c r="C293" t="s">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s">
+        <v>10</v>
+      </c>
+      <c r="E293">
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="F293">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>74</v>
+      </c>
+      <c r="C294" t="s">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s">
+        <v>10</v>
+      </c>
+      <c r="E294">
+        <v>5.416666666666667</v>
+      </c>
+      <c r="F294">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>54</v>
+      </c>
+      <c r="C295" t="s">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s">
+        <v>7</v>
+      </c>
+      <c r="E295">
+        <v>6.7692307692307692</v>
+      </c>
+      <c r="F295">
+        <v>70.83</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>16</v>
+      </c>
+      <c r="C296" t="s">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s">
+        <v>7</v>
+      </c>
+      <c r="E296">
+        <v>6.5</v>
+      </c>
+      <c r="F296">
+        <v>71.67</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>28</v>
+      </c>
+      <c r="C297" t="s">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s">
+        <v>8</v>
+      </c>
+      <c r="E297">
+        <v>5.375</v>
+      </c>
+      <c r="F297">
+        <v>68.33</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>18</v>
+      </c>
+      <c r="C298" t="s">
+        <v>6</v>
+      </c>
+      <c r="D298" t="s">
+        <v>8</v>
+      </c>
+      <c r="E298">
+        <v>6.875</v>
+      </c>
+      <c r="F298">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>8</v>
+      </c>
+      <c r="C299" t="s">
+        <v>6</v>
+      </c>
+      <c r="D299" t="s">
+        <v>9</v>
+      </c>
+      <c r="E299">
+        <v>5.375</v>
+      </c>
+      <c r="F299">
+        <v>77.08</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>17</v>
+      </c>
+      <c r="C300" t="s">
+        <v>6</v>
+      </c>
+      <c r="D300" t="s">
+        <v>9</v>
+      </c>
+      <c r="E300">
+        <v>4.8</v>
+      </c>
+      <c r="F300">
+        <v>78.89</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>7</v>
+      </c>
+      <c r="C301" t="s">
+        <v>6</v>
+      </c>
+      <c r="D301" t="s">
+        <v>10</v>
+      </c>
+      <c r="E301">
+        <v>5.416666666666667</v>
+      </c>
+      <c r="F301">
+        <v>78.33</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>11</v>
+      </c>
+      <c r="C302" t="s">
+        <v>6</v>
+      </c>
+      <c r="D302" t="s">
+        <v>10</v>
+      </c>
+      <c r="E302">
+        <v>7.9</v>
+      </c>
+      <c r="F302">
+        <v>76.67</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>5</v>
+      </c>
+      <c r="C303" t="s">
+        <v>6</v>
+      </c>
+      <c r="D303" t="s">
+        <v>10</v>
+      </c>
+      <c r="E303">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F303">
+        <v>81.11</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>11</v>
+      </c>
+      <c r="C304" t="s">
+        <v>6</v>
+      </c>
+      <c r="D304" t="s">
+        <v>8</v>
+      </c>
+      <c r="E304">
+        <v>7.2</v>
+      </c>
+      <c r="F304">
+        <v>81.94</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>25</v>
+      </c>
+      <c r="C305" t="s">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s">
+        <v>8</v>
+      </c>
+      <c r="E305">
+        <v>9.1</v>
+      </c>
+      <c r="F305">
+        <v>84.44</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>23</v>
+      </c>
+      <c r="C306" t="s">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s">
+        <v>9</v>
+      </c>
+      <c r="E306">
+        <v>7.4</v>
+      </c>
+      <c r="F306">
+        <v>85.83</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>10</v>
+      </c>
+      <c r="C307" t="s">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s">
+        <v>9</v>
+      </c>
+      <c r="E307">
+        <v>8.1</v>
+      </c>
+      <c r="F307">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>23</v>
+      </c>
+      <c r="C308" t="s">
+        <v>11</v>
+      </c>
+      <c r="D308" t="s">
+        <v>7</v>
+      </c>
+      <c r="E308">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F308">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>13</v>
+      </c>
+      <c r="C309" t="s">
+        <v>11</v>
+      </c>
+      <c r="D309" t="s">
+        <v>8</v>
+      </c>
+      <c r="E309">
+        <v>8.6</v>
+      </c>
+      <c r="F309">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>13</v>
+      </c>
+      <c r="C310" t="s">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s">
+        <v>8</v>
+      </c>
+      <c r="E310">
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="F310">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>22</v>
+      </c>
+      <c r="C311" t="s">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s">
+        <v>9</v>
+      </c>
+      <c r="E311">
+        <v>7.5</v>
+      </c>
+      <c r="F311">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>19</v>
+      </c>
+      <c r="C312" t="s">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s">
+        <v>9</v>
+      </c>
+      <c r="E312">
+        <v>7.8571428571428568</v>
+      </c>
+      <c r="F312">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>10</v>
+      </c>
+      <c r="C313" t="s">
+        <v>6</v>
+      </c>
+      <c r="D313" t="s">
+        <v>10</v>
+      </c>
+      <c r="E313">
+        <v>7.5</v>
+      </c>
+      <c r="F313">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>21</v>
+      </c>
+      <c r="C314" t="s">
+        <v>6</v>
+      </c>
+      <c r="D314" t="s">
+        <v>10</v>
+      </c>
+      <c r="E314">
+        <v>7</v>
+      </c>
+      <c r="F314">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>17</v>
+      </c>
+      <c r="C315" t="s">
+        <v>6</v>
+      </c>
+      <c r="D315" t="s">
+        <v>7</v>
+      </c>
+      <c r="E315">
+        <v>7</v>
+      </c>
+      <c r="F315">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>7</v>
+      </c>
+      <c r="C316" t="s">
+        <v>6</v>
+      </c>
+      <c r="D316" t="s">
+        <v>7</v>
+      </c>
+      <c r="E316">
+        <v>7.083333333333333</v>
+      </c>
+      <c r="F316">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>20</v>
+      </c>
+      <c r="C317" t="s">
+        <v>6</v>
+      </c>
+      <c r="D317" t="s">
+        <v>8</v>
+      </c>
+      <c r="E317">
+        <v>6</v>
+      </c>
+      <c r="F317">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>9</v>
+      </c>
+      <c r="C318" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318" t="s">
+        <v>8</v>
+      </c>
+      <c r="E318">
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="F318">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>12</v>
+      </c>
+      <c r="C319" t="s">
+        <v>6</v>
+      </c>
+      <c r="D319" t="s">
+        <v>9</v>
+      </c>
+      <c r="E319">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="F319">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>9</v>
+      </c>
+      <c r="C320" t="s">
+        <v>11</v>
+      </c>
+      <c r="D320" t="s">
+        <v>9</v>
+      </c>
+      <c r="E320">
+        <v>5.75</v>
+      </c>
+      <c r="F320">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>11</v>
+      </c>
+      <c r="C321" t="s">
+        <v>11</v>
+      </c>
+      <c r="D321" t="s">
+        <v>10</v>
+      </c>
+      <c r="E321">
+        <v>7.0666666666666664</v>
+      </c>
+      <c r="F321">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>12</v>
+      </c>
+      <c r="C322" t="s">
+        <v>11</v>
+      </c>
+      <c r="D322" t="s">
+        <v>10</v>
+      </c>
+      <c r="E322">
+        <v>8.4117647058823533</v>
+      </c>
+      <c r="F322">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>9</v>
+      </c>
+      <c r="C323" t="s">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s">
+        <v>7</v>
+      </c>
+      <c r="E323">
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="F323">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>19</v>
+      </c>
+      <c r="C324" t="s">
+        <v>11</v>
+      </c>
+      <c r="D324" t="s">
+        <v>7</v>
+      </c>
+      <c r="E324">
+        <v>7.6923076923076934</v>
+      </c>
+      <c r="F324">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>6</v>
+      </c>
+      <c r="C325" t="s">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s">
+        <v>8</v>
+      </c>
+      <c r="E325">
+        <v>6.9333333333333336</v>
+      </c>
+      <c r="F325">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>17</v>
+      </c>
+      <c r="C326" t="s">
+        <v>11</v>
+      </c>
+      <c r="D326" t="s">
+        <v>8</v>
+      </c>
+      <c r="E326">
+        <v>6.5</v>
+      </c>
+      <c r="F326">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>20</v>
+      </c>
+      <c r="C327" t="s">
+        <v>11</v>
+      </c>
+      <c r="D327" t="s">
+        <v>9</v>
+      </c>
+      <c r="E327">
+        <v>9.25</v>
+      </c>
+      <c r="F327">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>8</v>
+      </c>
+      <c r="C328" t="s">
+        <v>11</v>
+      </c>
+      <c r="D328" t="s">
+        <v>9</v>
+      </c>
+      <c r="E328">
+        <v>9.5</v>
+      </c>
+      <c r="F328">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>10</v>
+      </c>
+      <c r="C329" t="s">
+        <v>11</v>
+      </c>
+      <c r="D329" t="s">
+        <v>10</v>
+      </c>
+      <c r="E329">
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="F329">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>23</v>
+      </c>
+      <c r="C330" t="s">
+        <v>11</v>
+      </c>
+      <c r="D330" t="s">
+        <v>10</v>
+      </c>
+      <c r="E330">
+        <v>5.416666666666667</v>
+      </c>
+      <c r="F330">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>5</v>
+      </c>
+      <c r="C331" t="s">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s">
+        <v>7</v>
+      </c>
+      <c r="E331">
+        <v>6.7692307692307692</v>
+      </c>
+      <c r="F331">
+        <v>70.83</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>14</v>
+      </c>
+      <c r="C332" t="s">
+        <v>11</v>
+      </c>
+      <c r="D332" t="s">
+        <v>7</v>
+      </c>
+      <c r="E332">
+        <v>6.5</v>
+      </c>
+      <c r="F332">
+        <v>71.67</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>14</v>
+      </c>
+      <c r="C333" t="s">
+        <v>11</v>
+      </c>
+      <c r="D333" t="s">
+        <v>8</v>
+      </c>
+      <c r="E333">
+        <v>5.375</v>
+      </c>
+      <c r="F333">
+        <v>68.33</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>15</v>
+      </c>
+      <c r="C334" t="s">
+        <v>6</v>
+      </c>
+      <c r="D334" t="s">
+        <v>8</v>
+      </c>
+      <c r="E334">
+        <v>6.875</v>
+      </c>
+      <c r="F334">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>55</v>
+      </c>
+      <c r="C335" t="s">
+        <v>6</v>
+      </c>
+      <c r="D335" t="s">
+        <v>9</v>
+      </c>
+      <c r="E335">
+        <v>5.375</v>
+      </c>
+      <c r="F335">
+        <v>77.08</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>35</v>
+      </c>
+      <c r="C336" t="s">
+        <v>6</v>
+      </c>
+      <c r="D336" t="s">
+        <v>9</v>
+      </c>
+      <c r="E336">
+        <v>4.8</v>
+      </c>
+      <c r="F336">
+        <v>78.89</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>69</v>
+      </c>
+      <c r="C337" t="s">
+        <v>6</v>
+      </c>
+      <c r="D337" t="s">
+        <v>10</v>
+      </c>
+      <c r="E337">
+        <v>5.416666666666667</v>
+      </c>
+      <c r="F337">
+        <v>78.33</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>66</v>
+      </c>
+      <c r="C338" t="s">
+        <v>6</v>
+      </c>
+      <c r="D338" t="s">
+        <v>10</v>
+      </c>
+      <c r="E338">
+        <v>7.9</v>
+      </c>
+      <c r="F338">
+        <v>76.67</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>53</v>
+      </c>
+      <c r="C339" t="s">
+        <v>6</v>
+      </c>
+      <c r="D339" t="s">
+        <v>10</v>
+      </c>
+      <c r="E339">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F339">
+        <v>81.11</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>12</v>
+      </c>
+      <c r="C340" t="s">
+        <v>6</v>
+      </c>
+      <c r="D340" t="s">
+        <v>8</v>
+      </c>
+      <c r="E340">
+        <v>7.2</v>
+      </c>
+      <c r="F340">
+        <v>81.94</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>32</v>
+      </c>
+      <c r="C341" t="s">
+        <v>11</v>
+      </c>
+      <c r="D341" t="s">
+        <v>8</v>
+      </c>
+      <c r="E341">
+        <v>9.1</v>
+      </c>
+      <c r="F341">
+        <v>84.44</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>10</v>
+      </c>
+      <c r="C342" t="s">
+        <v>11</v>
+      </c>
+      <c r="D342" t="s">
+        <v>9</v>
+      </c>
+      <c r="E342">
+        <v>7.4</v>
+      </c>
+      <c r="F342">
+        <v>85.83</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>77</v>
+      </c>
+      <c r="C343" t="s">
+        <v>11</v>
+      </c>
+      <c r="D343" t="s">
+        <v>9</v>
+      </c>
+      <c r="E343">
+        <v>8.1</v>
+      </c>
+      <c r="F343">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>34</v>
+      </c>
+      <c r="C344" t="s">
+        <v>11</v>
+      </c>
+      <c r="D344" t="s">
+        <v>7</v>
+      </c>
+      <c r="E344">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F344">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>65</v>
+      </c>
+      <c r="C345" t="s">
+        <v>11</v>
+      </c>
+      <c r="D345" t="s">
+        <v>8</v>
+      </c>
+      <c r="E345">
+        <v>8.6</v>
+      </c>
+      <c r="F345">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>17</v>
+      </c>
+      <c r="C346" t="s">
+        <v>11</v>
+      </c>
+      <c r="D346" t="s">
+        <v>8</v>
+      </c>
+      <c r="E346">
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="F346">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>47</v>
+      </c>
+      <c r="C347" t="s">
+        <v>11</v>
+      </c>
+      <c r="D347" t="s">
+        <v>9</v>
+      </c>
+      <c r="E347">
+        <v>7.5</v>
+      </c>
+      <c r="F347">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>76</v>
+      </c>
+      <c r="C348" t="s">
+        <v>11</v>
+      </c>
+      <c r="D348" t="s">
+        <v>9</v>
+      </c>
+      <c r="E348">
+        <v>7.8571428571428568</v>
+      </c>
+      <c r="F348">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>65</v>
+      </c>
+      <c r="C349" t="s">
+        <v>6</v>
+      </c>
+      <c r="D349" t="s">
+        <v>10</v>
+      </c>
+      <c r="E349">
+        <v>7.5</v>
+      </c>
+      <c r="F349">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>54</v>
+      </c>
+      <c r="C350" t="s">
+        <v>6</v>
+      </c>
+      <c r="D350" t="s">
+        <v>10</v>
+      </c>
+      <c r="E350">
+        <v>7</v>
+      </c>
+      <c r="F350">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>68</v>
+      </c>
+      <c r="C351" t="s">
+        <v>6</v>
+      </c>
+      <c r="D351" t="s">
+        <v>7</v>
+      </c>
+      <c r="E351">
+        <v>7</v>
+      </c>
+      <c r="F351">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>15</v>
+      </c>
+      <c r="C352" t="s">
+        <v>6</v>
+      </c>
+      <c r="D352" t="s">
+        <v>7</v>
+      </c>
+      <c r="E352">
+        <v>7.083333333333333</v>
+      </c>
+      <c r="F352">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>7</v>
+      </c>
+      <c r="C353" t="s">
+        <v>6</v>
+      </c>
+      <c r="D353" t="s">
+        <v>8</v>
+      </c>
+      <c r="E353">
+        <v>6</v>
+      </c>
+      <c r="F353">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>69</v>
+      </c>
+      <c r="C354" t="s">
+        <v>6</v>
+      </c>
+      <c r="D354" t="s">
+        <v>8</v>
+      </c>
+      <c r="E354">
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="F354">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>70</v>
+      </c>
+      <c r="C355" t="s">
+        <v>6</v>
+      </c>
+      <c r="D355" t="s">
+        <v>9</v>
+      </c>
+      <c r="E355">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="F355">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>60</v>
+      </c>
+      <c r="C356" t="s">
+        <v>11</v>
+      </c>
+      <c r="D356" t="s">
+        <v>9</v>
+      </c>
+      <c r="E356">
+        <v>5.75</v>
+      </c>
+      <c r="F356">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>26</v>
+      </c>
+      <c r="C357" t="s">
+        <v>11</v>
+      </c>
+      <c r="D357" t="s">
+        <v>10</v>
+      </c>
+      <c r="E357">
+        <v>7.0666666666666664</v>
+      </c>
+      <c r="F357">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>46</v>
+      </c>
+      <c r="C358" t="s">
+        <v>11</v>
+      </c>
+      <c r="D358" t="s">
+        <v>10</v>
+      </c>
+      <c r="E358">
+        <v>8.4117647058823533</v>
+      </c>
+      <c r="F358">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>80</v>
+      </c>
+      <c r="C359" t="s">
+        <v>11</v>
+      </c>
+      <c r="D359" t="s">
+        <v>7</v>
+      </c>
+      <c r="E359">
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="F359">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>38</v>
+      </c>
+      <c r="C360" t="s">
+        <v>11</v>
+      </c>
+      <c r="D360" t="s">
+        <v>7</v>
+      </c>
+      <c r="E360">
+        <v>7.6923076923076934</v>
+      </c>
+      <c r="F360">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>53</v>
+      </c>
+      <c r="C361" t="s">
+        <v>11</v>
+      </c>
+      <c r="D361" t="s">
+        <v>8</v>
+      </c>
+      <c r="E361">
+        <v>6.9333333333333336</v>
+      </c>
+      <c r="F361">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>36</v>
+      </c>
+      <c r="C362" t="s">
+        <v>11</v>
+      </c>
+      <c r="D362" t="s">
+        <v>8</v>
+      </c>
+      <c r="E362">
+        <v>6.5</v>
+      </c>
+      <c r="F362">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>21</v>
+      </c>
+      <c r="C363" t="s">
+        <v>11</v>
+      </c>
+      <c r="D363" t="s">
+        <v>9</v>
+      </c>
+      <c r="E363">
+        <v>9.25</v>
+      </c>
+      <c r="F363">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>6</v>
+      </c>
+      <c r="C364" t="s">
+        <v>11</v>
+      </c>
+      <c r="D364" t="s">
+        <v>9</v>
+      </c>
+      <c r="E364">
+        <v>9.5</v>
+      </c>
+      <c r="F364">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>5</v>
+      </c>
+      <c r="C365" t="s">
+        <v>11</v>
+      </c>
+      <c r="D365" t="s">
+        <v>10</v>
+      </c>
+      <c r="E365">
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="F365">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>17</v>
+      </c>
+      <c r="C366" t="s">
+        <v>11</v>
+      </c>
+      <c r="D366" t="s">
+        <v>10</v>
+      </c>
+      <c r="E366">
+        <v>5.416666666666667</v>
+      </c>
+      <c r="F366">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>44</v>
+      </c>
+      <c r="C367" t="s">
+        <v>11</v>
+      </c>
+      <c r="D367" t="s">
+        <v>7</v>
+      </c>
+      <c r="E367">
+        <v>6.7692307692307692</v>
+      </c>
+      <c r="F367">
+        <v>70.83</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>33</v>
+      </c>
+      <c r="C368" t="s">
+        <v>11</v>
+      </c>
+      <c r="D368" t="s">
+        <v>7</v>
+      </c>
+      <c r="E368">
+        <v>6.5</v>
+      </c>
+      <c r="F368">
+        <v>71.67</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>54</v>
+      </c>
+      <c r="C369" t="s">
+        <v>11</v>
+      </c>
+      <c r="D369" t="s">
+        <v>8</v>
+      </c>
+      <c r="E369">
+        <v>5.375</v>
+      </c>
+      <c r="F369">
+        <v>68.33</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>65</v>
+      </c>
+      <c r="C370" t="s">
+        <v>6</v>
+      </c>
+      <c r="D370" t="s">
+        <v>8</v>
+      </c>
+      <c r="E370">
+        <v>6.875</v>
+      </c>
+      <c r="F370">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>41</v>
+      </c>
+      <c r="C371" t="s">
+        <v>6</v>
+      </c>
+      <c r="D371" t="s">
+        <v>9</v>
+      </c>
+      <c r="E371">
+        <v>5.375</v>
+      </c>
+      <c r="F371">
+        <v>77.08</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>56</v>
+      </c>
+      <c r="C372" t="s">
+        <v>6</v>
+      </c>
+      <c r="D372" t="s">
+        <v>9</v>
+      </c>
+      <c r="E372">
+        <v>4.8</v>
+      </c>
+      <c r="F372">
+        <v>78.89</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>63</v>
+      </c>
+      <c r="C373" t="s">
+        <v>6</v>
+      </c>
+      <c r="D373" t="s">
+        <v>10</v>
+      </c>
+      <c r="E373">
+        <v>5.416666666666667</v>
+      </c>
+      <c r="F373">
+        <v>78.33</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>69</v>
+      </c>
+      <c r="C374" t="s">
+        <v>6</v>
+      </c>
+      <c r="D374" t="s">
+        <v>10</v>
+      </c>
+      <c r="E374">
+        <v>7.9</v>
+      </c>
+      <c r="F374">
+        <v>76.67</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>72</v>
+      </c>
+      <c r="C375" t="s">
+        <v>6</v>
+      </c>
+      <c r="D375" t="s">
+        <v>10</v>
+      </c>
+      <c r="E375">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F375">
+        <v>81.11</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>17</v>
+      </c>
+      <c r="C376" t="s">
+        <v>6</v>
+      </c>
+      <c r="D376" t="s">
+        <v>8</v>
+      </c>
+      <c r="E376">
+        <v>7.2</v>
+      </c>
+      <c r="F376">
+        <v>81.94</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>30</v>
+      </c>
+      <c r="C377" t="s">
+        <v>11</v>
+      </c>
+      <c r="D377" t="s">
+        <v>8</v>
+      </c>
+      <c r="E377">
+        <v>9.1</v>
+      </c>
+      <c r="F377">
+        <v>84.44</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>28</v>
+      </c>
+      <c r="C378" t="s">
+        <v>11</v>
+      </c>
+      <c r="D378" t="s">
+        <v>9</v>
+      </c>
+      <c r="E378">
+        <v>7.4</v>
+      </c>
+      <c r="F378">
+        <v>85.83</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>35</v>
+      </c>
+      <c r="C379" t="s">
+        <v>11</v>
+      </c>
+      <c r="D379" t="s">
+        <v>9</v>
+      </c>
+      <c r="E379">
+        <v>8.1</v>
+      </c>
+      <c r="F379">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>54</v>
+      </c>
+      <c r="C380" t="s">
+        <v>6</v>
+      </c>
+      <c r="D380" t="s">
+        <v>10</v>
+      </c>
+      <c r="E380">
+        <v>5.416666666666667</v>
+      </c>
+      <c r="F380">
+        <v>78.33</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>34</v>
+      </c>
+      <c r="C381" t="s">
+        <v>6</v>
+      </c>
+      <c r="D381" t="s">
+        <v>10</v>
+      </c>
+      <c r="E381">
+        <v>7.9</v>
+      </c>
+      <c r="F381">
+        <v>76.67</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>52</v>
+      </c>
+      <c r="C382" t="s">
+        <v>6</v>
+      </c>
+      <c r="D382" t="s">
+        <v>10</v>
+      </c>
+      <c r="E382">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F382">
+        <v>81.11</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>40</v>
+      </c>
+      <c r="C383" t="s">
+        <v>6</v>
+      </c>
+      <c r="D383" t="s">
+        <v>8</v>
+      </c>
+      <c r="E383">
+        <v>7.2</v>
+      </c>
+      <c r="F383">
+        <v>81.94</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>74</v>
+      </c>
+      <c r="C384" t="s">
+        <v>11</v>
+      </c>
+      <c r="D384" t="s">
+        <v>8</v>
+      </c>
+      <c r="E384">
+        <v>9.1</v>
+      </c>
+      <c r="F384">
+        <v>84.44</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>8</v>
+      </c>
+      <c r="C385" t="s">
+        <v>11</v>
+      </c>
+      <c r="D385" t="s">
+        <v>9</v>
+      </c>
+      <c r="E385">
+        <v>7.4</v>
+      </c>
+      <c r="F385">
+        <v>85.83</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>52</v>
+      </c>
+      <c r="C386" t="s">
+        <v>11</v>
+      </c>
+      <c r="D386" t="s">
+        <v>9</v>
+      </c>
+      <c r="E386">
+        <v>8.1</v>
+      </c>
+      <c r="F386">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>9</v>
+      </c>
+      <c r="C387" t="s">
+        <v>11</v>
+      </c>
+      <c r="D387" t="s">
+        <v>7</v>
+      </c>
+      <c r="E387">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F387">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>50</v>
+      </c>
+      <c r="C388" t="s">
+        <v>11</v>
+      </c>
+      <c r="D388" t="s">
+        <v>8</v>
+      </c>
+      <c r="E388">
+        <v>8.6</v>
+      </c>
+      <c r="F388">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>40</v>
+      </c>
+      <c r="C389" t="s">
+        <v>11</v>
+      </c>
+      <c r="D389" t="s">
+        <v>8</v>
+      </c>
+      <c r="E389">
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="F389">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>73</v>
+      </c>
+      <c r="C390" t="s">
+        <v>11</v>
+      </c>
+      <c r="D390" t="s">
+        <v>9</v>
+      </c>
+      <c r="E390">
+        <v>7.5</v>
+      </c>
+      <c r="F390">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>57</v>
+      </c>
+      <c r="C391" t="s">
+        <v>11</v>
+      </c>
+      <c r="D391" t="s">
+        <v>9</v>
+      </c>
+      <c r="E391">
+        <v>7.8571428571428568</v>
+      </c>
+      <c r="F391">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>72</v>
+      </c>
+      <c r="C392" t="s">
+        <v>6</v>
+      </c>
+      <c r="D392" t="s">
+        <v>10</v>
+      </c>
+      <c r="E392">
+        <v>7.5</v>
+      </c>
+      <c r="F392">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>53</v>
+      </c>
+      <c r="C393" t="s">
+        <v>6</v>
+      </c>
+      <c r="D393" t="s">
+        <v>10</v>
+      </c>
+      <c r="E393">
+        <v>7</v>
+      </c>
+      <c r="F393">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>71</v>
+      </c>
+      <c r="C394" t="s">
+        <v>6</v>
+      </c>
+      <c r="D394" t="s">
+        <v>7</v>
+      </c>
+      <c r="E394">
+        <v>7</v>
+      </c>
+      <c r="F394">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>13</v>
+      </c>
+      <c r="C395" t="s">
+        <v>6</v>
+      </c>
+      <c r="D395" t="s">
+        <v>7</v>
+      </c>
+      <c r="E395">
+        <v>7.083333333333333</v>
+      </c>
+      <c r="F395">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>13</v>
+      </c>
+      <c r="C396" t="s">
+        <v>6</v>
+      </c>
+      <c r="D396" t="s">
+        <v>8</v>
+      </c>
+      <c r="E396">
+        <v>6</v>
+      </c>
+      <c r="F396">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>72</v>
+      </c>
+      <c r="C397" t="s">
+        <v>6</v>
+      </c>
+      <c r="D397" t="s">
+        <v>8</v>
+      </c>
+      <c r="E397">
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="F397">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>53</v>
+      </c>
+      <c r="C398" t="s">
+        <v>6</v>
+      </c>
+      <c r="D398" t="s">
+        <v>9</v>
+      </c>
+      <c r="E398">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="F398">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>68</v>
+      </c>
+      <c r="C399" t="s">
+        <v>11</v>
+      </c>
+      <c r="D399" t="s">
+        <v>9</v>
+      </c>
+      <c r="E399">
+        <v>5.75</v>
+      </c>
+      <c r="F399">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>52</v>
+      </c>
+      <c r="C400" t="s">
+        <v>11</v>
+      </c>
+      <c r="D400" t="s">
+        <v>10</v>
+      </c>
+      <c r="E400">
+        <v>7.0666666666666664</v>
+      </c>
+      <c r="F400">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>9</v>
+      </c>
+      <c r="C401" t="s">
+        <v>11</v>
+      </c>
+      <c r="D401" t="s">
+        <v>10</v>
+      </c>
+      <c r="E401">
+        <v>8.4117647058823533</v>
+      </c>
+      <c r="F401">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>50</v>
+      </c>
+      <c r="C402" t="s">
+        <v>11</v>
+      </c>
+      <c r="D402" t="s">
+        <v>7</v>
+      </c>
+      <c r="E402">
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="F402">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>40</v>
+      </c>
+      <c r="C403" t="s">
+        <v>11</v>
+      </c>
+      <c r="D403" t="s">
+        <v>7</v>
+      </c>
+      <c r="E403">
+        <v>7.6923076923076934</v>
+      </c>
+      <c r="F403">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
